--- a/GroceryAppNew/src/main/resources/ExcelFiles/logindetails.xlsx
+++ b/GroceryAppNew/src/main/resources/ExcelFiles/logindetails.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{351CADAD-0BFA-4EE6-8E47-ADC669B8F000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{072F844C-A09A-4C78-BE80-BF81FEBBBD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{39A3F096-7DC5-49DB-B4FD-BCEEE925F76E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="ManageLocation" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Q4"/>
+  <oleSize ref="A1:Q13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,33 +22,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>password</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t>username password</t>
   </si>
   <si>
     <t>admin</t>
   </si>
   <si>
-    <t>Menuname</t>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>menuId</t>
+  </si>
+  <si>
+    <t>color</t>
   </si>
   <si>
     <t>test12</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>http</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>color</t>
+    <t>https</t>
   </si>
   <si>
     <t>red</t>
@@ -124,7 +120,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -136,7 +132,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -183,6 +179,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -218,6 +231,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -369,7 +399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16428212-B996-41D5-9774-B79E43F28D64}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -382,79 +412,59 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B62FE48-25AE-4F34-92CB-D5B906425A56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44969767-9CB6-490E-8AD7-6B8D0114F1F0}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A098A280-B32F-40B2-8C24-5FD00E61A095}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>